--- a/thesis/floodDispatch2.0/data/baseData/水位库容曲线.xlsx
+++ b/thesis/floodDispatch2.0/data/baseData/水位库容曲线.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\study\studyProjects\qrfGitRepository\thesis\floodDispatch2.0\data\baseData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3AEA07-9A21-41E8-9970-4D7FEB6D3134}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F0B690-A0FA-4ACC-803B-E7283DE1DE8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XLD" sheetId="1" r:id="rId1"/>
     <sheet name="XJB" sheetId="2" r:id="rId2"/>
     <sheet name="SX" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -51,16 +51,19 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -495,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1282,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B551"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="K159" sqref="K159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/thesis/floodDispatch2.0/data/baseData/水位库容曲线.xlsx
+++ b/thesis/floodDispatch2.0/data/baseData/水位库容曲线.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\study\studyProjects\qrfGitRepository\thesis\floodDispatch2.0\data\baseData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\studyProjects\qrfRepository\thesis\floodDispatch2.0\data\baseData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F0B690-A0FA-4ACC-803B-E7283DE1DE8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E896570-CD95-4A27-833C-C5E601F222D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XLD" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,6 +86,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -102,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -114,6 +120,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -498,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -673,10 +680,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="5">
         <v>560</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>69.23</v>
       </c>
     </row>
@@ -993,10 +1000,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="5">
         <v>600</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="5">
         <v>115.738</v>
       </c>
     </row>
@@ -1092,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1277,6 +1284,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1285,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="K159" sqref="K159"/>
+    <sheetView topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="B451" sqref="B451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
